--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\OneDrive\Projects\bollettini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F03DE80-C3D3-4843-B3B8-6130C164AF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F189483-3734-4809-8F07-A5D5BFE06724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{57168574-D59C-4D33-BA1E-F4326744C78D}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{57168574-D59C-4D33-BA1E-F4326744C78D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Intestatario</t>
   </si>
@@ -69,9 +69,6 @@
     <t>AAAA</t>
   </si>
   <si>
-    <t>TESTC2</t>
-  </si>
-  <si>
     <t>ESE3</t>
   </si>
   <si>
@@ -87,7 +84,7 @@
     <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eius</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipis</t>
+    <t>Lorem ipsum dolor sit amet, consectetur adipisci</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,16 +488,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>89999</v>
@@ -517,13 +514,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -532,7 +529,7 @@
         <v>29999</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>525.54999999999995</v>
